--- a/content.xlsx
+++ b/content.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudos\Dropbox\藝文志 and LLM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudos\Dropbox\individual_projects\Bibliography-and-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53A331-F06D-44F5-AB27-7E08780CF6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847C9B0-234B-4649-9ABF-BC96C236ABFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3EECE41F-A681-4746-A5A4-0544988E6245}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3EECE41F-A681-4746-A5A4-0544988E6245}"/>
   </bookViews>
   <sheets>
     <sheet name="sql" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="chatlog" sheetId="3" r:id="rId5"/>
     <sheet name="prompts" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RAG!$A$1:$C$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -470,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -478,16 +481,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1048,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB615D2-5E67-4744-AEB2-7BC7F0AABD3B}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,46 +1465,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B90419-F3CA-4926-AA2E-0259ED0513DA}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1498,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2B23C8-379A-48FB-A6CB-225ECE6C5D64}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
